--- a/Asset_Test/Assets/Resources/Data/SkillData.xlsx
+++ b/Asset_Test/Assets/Resources/Data/SkillData.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">SkillImagePath</t>
   </si>
   <si>
-    <t xml:space="preserve">Target</t>
+    <t xml:space="preserve">NoneTarget</t>
   </si>
   <si>
     <t xml:space="preserve">파이어볼</t>
@@ -89,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="맑은 고딕"/>
@@ -139,6 +139,13 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
@@ -197,7 +204,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,7 +241,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,17 +269,17 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I:I"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="45.65"/>
@@ -311,7 +322,7 @@
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -329,7 +340,7 @@
       <c r="G2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="9" t="n">
+      <c r="H2" s="10" t="n">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -361,7 +372,7 @@
       <c r="G3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -372,31 +383,31 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H8" s="9"/>
+      <c r="H8" s="10"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="9"/>
+      <c r="H9" s="10"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="9"/>
+      <c r="H10" s="10"/>
       <c r="J10" s="1"/>
     </row>
   </sheetData>

--- a/Asset_Test/Assets/Resources/Data/SkillData.xlsx
+++ b/Asset_Test/Assets/Resources/Data/SkillData.xlsx
@@ -161,7 +161,7 @@
     <t xml:space="preserve">휠윈드</t>
   </si>
   <si>
-    <t xml:space="preserve">회전하면서 {0}데미지를 줍니다.</t>
+    <t xml:space="preserve">회전하면서 주위의 적에게\n초당 {0}의 데미지를 줍니다.</t>
   </si>
   <si>
     <t xml:space="preserve">Skill/Skill_Icon/Whirl_Wind</t>
@@ -530,7 +530,7 @@
   <dimension ref="B1:S24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -545,10 +545,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="8.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="39.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="43.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="40.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="14.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="4" width="16.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="4" width="11.69"/>

--- a/Asset_Test/Assets/Resources/Data/SkillData.xlsx
+++ b/Asset_Test/Assets/Resources/Data/SkillData.xlsx
@@ -212,7 +212,7 @@
     <t xml:space="preserve">버프</t>
   </si>
   <si>
-    <t xml:space="preserve">instant cast</t>
+    <t xml:space="preserve">Instant Cast</t>
   </si>
   <si>
     <t xml:space="preserve">즉시시전스킬</t>
@@ -529,8 +529,8 @@
   </sheetPr>
   <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -804,7 +804,6 @@
       <c r="M6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="0"/>
       <c r="P6" s="10" t="s">
         <v>4</v>
       </c>

--- a/Asset_Test/Assets/Resources/Data/SkillData.xlsx
+++ b/Asset_Test/Assets/Resources/Data/SkillData.xlsx
@@ -161,7 +161,7 @@
     <t xml:space="preserve">휠윈드</t>
   </si>
   <si>
-    <t xml:space="preserve">회전하면서 주위의 적에게\n초당 {0}의 데미지를 줍니다.</t>
+    <t xml:space="preserve">회전하면서 주위의 적에게 5초간\n초당 {0}의 데미지를 줍니다.</t>
   </si>
   <si>
     <t xml:space="preserve">Skill/Skill_Icon/Whirl_Wind</t>
@@ -530,7 +530,7 @@
   <dimension ref="B1:S24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -545,7 +545,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="8.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="43.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="49.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="40.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="32.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.88"/>

--- a/Asset_Test/Assets/Resources/Data/SkillData.xlsx
+++ b/Asset_Test/Assets/Resources/Data/SkillData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t xml:space="preserve">Skill_Data</t>
   </si>
@@ -103,16 +103,13 @@
     <t xml:space="preserve">0 ~ 9</t>
   </si>
   <si>
-    <t xml:space="preserve">3단 배기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3단공격.\n총 {0}의 데미지를 줍니다.</t>
+    <t xml:space="preserve">발도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발도.\n{0}의 데미지를 줍니다.</t>
   </si>
   <si>
     <t xml:space="preserve">Skill/Skill_Icon/Slice_Attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">데미지3회공격</t>
   </si>
   <si>
     <t xml:space="preserve">스킬 이름</t>
@@ -529,8 +526,8 @@
   </sheetPr>
   <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -545,7 +542,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="8.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="49.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="49.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="40.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="32.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.88"/>
@@ -719,7 +716,7 @@
         <v>300002</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>27</v>
@@ -731,13 +728,13 @@
         <v>20</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>5</v>
@@ -751,20 +748,17 @@
       <c r="M5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="P5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5" s="11" t="s">
         <v>19</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>2</v>
@@ -799,22 +793,22 @@
         <v>5</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="Q6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>2</v>
@@ -849,25 +843,25 @@
         <v>10</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="P7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="11" t="s">
+      <c r="R7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,7 +872,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>2</v>
@@ -887,7 +881,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>2</v>
@@ -902,22 +896,22 @@
         <v>15</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="P8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="Q8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="Q9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,13 +934,13 @@
         <v>8</v>
       </c>
       <c r="Q10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="Q13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,10 +966,10 @@
         <v>1</v>
       </c>
       <c r="Q14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,10 +977,10 @@
         <v>2</v>
       </c>
       <c r="Q15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,10 +999,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R20" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,10 +1033,10 @@
         <v>1</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,10 +1044,10 @@
         <v>2</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Asset_Test/Assets/Resources/Data/SkillData.xlsx
+++ b/Asset_Test/Assets/Resources/Data/SkillData.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="B1:S24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>5</v>

--- a/Asset_Test/Assets/Resources/Data/SkillData.xlsx
+++ b/Asset_Test/Assets/Resources/Data/SkillData.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="B1:S24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>20</v>
